--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,23 +747,23 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -770,13 +777,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,31 +929,37 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1146,7 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1102,22 +1155,28 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,32 +1254,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,40 +1307,46 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1328,57 +1413,63 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1554,7 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1460,45 +1563,51 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1507,31 +1616,37 @@
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,15 +1721,15 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,32 +1854,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1750,19 +1889,25 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -1771,31 +1916,37 @@
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1989,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -1859,80 +2016,92 @@
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2032,31 +2211,37 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,28 +2249,28 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,10 +2482,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2299,10 +2514,10 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,10 +2582,16 @@
         <v>4000</v>
       </c>
       <c r="P49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F54" s="3">
         <v>4400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,26 +2878,28 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2655,16 +2916,22 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2749,28 +3022,34 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
@@ -2787,16 +3066,22 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2869,10 +3160,10 @@
         <v>1000</v>
       </c>
       <c r="L62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N62" s="3">
         <v>1500</v>
@@ -2880,11 +3171,17 @@
       <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3324,19 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
@@ -3045,22 +3360,28 @@
         <v>1000</v>
       </c>
       <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3">
         <v>1500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1700</v>
       </c>
       <c r="O66" s="3">
         <v>1500</v>
       </c>
       <c r="P66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,52 +3494,64 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F70" s="3">
         <v>4400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>4400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>3800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>3700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>3700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>3600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>3300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>3200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3894,80 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -3587,31 +3976,37 @@
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4319,19 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -3907,37 +4340,43 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
-      </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,16 +4539,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4113,25 +4572,31 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,14 +4824,14 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4366,10 +4857,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>-200</v>
-      </c>
       <c r="I102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,20 +757,20 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -783,13 +787,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,13 +921,14 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -935,10 +949,10 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -947,19 +961,22 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1152,31 +1179,34 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1190,43 +1220,46 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,29 +1294,29 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,10 +1344,10 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
@@ -1319,7 +1356,7 @@
         <v>-200</v>
       </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
@@ -1328,25 +1365,28 @@
         <v>-300</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,13 +1435,16 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1419,45 +1462,48 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1465,14 +1511,14 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,19 +1594,22 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1569,84 +1621,90 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
       <c r="K27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
-      </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>500</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,29 +1930,29 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
       <c r="K33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
       <c r="K35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2152,46 +2239,49 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2217,31 +2307,34 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>200</v>
       </c>
       <c r="M42" s="3">
+        <v>200</v>
+      </c>
+      <c r="N42" s="3">
         <v>300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2255,25 +2348,25 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,46 +2504,49 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1200</v>
       </c>
       <c r="N46" s="3">
         <v>1200</v>
       </c>
       <c r="O46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,10 +2593,13 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2520,7 +2628,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,10 +2699,13 @@
         <v>4000</v>
       </c>
       <c r="R49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2802,46 +2928,49 @@
         <v>4200</v>
       </c>
       <c r="F54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G54" s="3">
         <v>4400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5400</v>
       </c>
       <c r="N54" s="3">
         <v>5400</v>
       </c>
       <c r="O54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,7 +3020,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2898,11 +3029,11 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2922,39 +3053,42 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3028,19 +3165,22 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -3048,11 +3188,11 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -3072,21 +3212,24 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3166,7 +3312,7 @@
         <v>1000</v>
       </c>
       <c r="N62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="O62" s="3">
         <v>1500</v>
@@ -3177,11 +3323,14 @@
       <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,16 +3485,19 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1000</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
@@ -3366,22 +3524,25 @@
         <v>1000</v>
       </c>
       <c r="N66" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>1500</v>
       </c>
       <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,58 +3665,64 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E70" s="3">
         <v>4600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>4500</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4400</v>
       </c>
       <c r="G70" s="3">
         <v>4400</v>
       </c>
       <c r="H70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I70" s="3">
         <v>3800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3700</v>
       </c>
       <c r="J70" s="3">
         <v>3700</v>
       </c>
       <c r="K70" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L70" s="3">
         <v>3600</v>
-      </c>
-      <c r="L70" s="3">
-        <v>3500</v>
       </c>
       <c r="M70" s="3">
         <v>3500</v>
       </c>
       <c r="N70" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O70" s="3">
         <v>3400</v>
-      </c>
-      <c r="O70" s="3">
-        <v>3300</v>
       </c>
       <c r="P70" s="3">
         <v>3300</v>
       </c>
       <c r="Q70" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="R70" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
-        <v>-300</v>
-      </c>
       <c r="J76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
       <c r="K81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,31 +4539,34 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -4358,25 +4575,28 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4578,25 +4808,28 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4830,11 +5076,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4863,10 +5109,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,22 +5176,22 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
@@ -4948,21 +5200,24 @@
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,20 +764,20 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -790,13 +794,16 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,16 +935,17 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -952,10 +966,10 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -964,19 +978,22 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1182,31 +1209,34 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1223,43 +1253,46 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1297,29 +1331,29 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,16 +1378,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
@@ -1359,7 +1396,7 @@
         <v>-200</v>
       </c>
       <c r="K21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
@@ -1368,25 +1405,28 @@
         <v>-300</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
-        <v>-300</v>
-      </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,16 +1478,19 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1465,48 +1508,51 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
-        <v>-300</v>
-      </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1514,14 +1560,14 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,22 +1646,25 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-300</v>
-      </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1624,87 +1676,93 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
-        <v>-300</v>
-      </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-300</v>
-      </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
       <c r="L27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
-        <v>-300</v>
-      </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1933,29 +2003,29 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-300</v>
-      </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
       <c r="L33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
-        <v>-300</v>
-      </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-300</v>
-      </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
       <c r="L35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
-        <v>-300</v>
-      </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2313,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2242,51 +2329,54 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2310,31 +2400,34 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>200</v>
       </c>
       <c r="N42" s="3">
+        <v>200</v>
+      </c>
+      <c r="O42" s="3">
         <v>300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2351,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,13 +2591,16 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2507,46 +2609,49 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1200</v>
       </c>
       <c r="O46" s="3">
         <v>1200</v>
       </c>
       <c r="P46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,10 +2701,13 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,7 +2739,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,10 +2813,13 @@
         <v>4000</v>
       </c>
       <c r="S49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="E54" s="3">
         <v>4200</v>
@@ -2931,46 +3057,49 @@
         <v>4200</v>
       </c>
       <c r="G54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>5400</v>
       </c>
       <c r="O54" s="3">
         <v>5400</v>
       </c>
       <c r="P54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,19 +3141,20 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3032,11 +3163,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -3056,24 +3187,27 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -3090,8 +3224,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3168,22 +3305,25 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -3191,11 +3331,11 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
@@ -3215,25 +3355,28 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3276,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
@@ -3315,7 +3461,7 @@
         <v>1000</v>
       </c>
       <c r="O62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="P62" s="3">
         <v>1500</v>
@@ -3326,11 +3472,14 @@
       <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,19 +3643,22 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1000</v>
       </c>
       <c r="G66" s="3">
         <v>1000</v>
@@ -3527,22 +3685,25 @@
         <v>1000</v>
       </c>
       <c r="O66" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="P66" s="3">
         <v>1500</v>
       </c>
       <c r="Q66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3677,52 +3845,55 @@
         <v>4700</v>
       </c>
       <c r="E70" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F70" s="3">
         <v>4600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4500</v>
-      </c>
-      <c r="G70" s="3">
-        <v>4400</v>
       </c>
       <c r="H70" s="3">
         <v>4400</v>
       </c>
       <c r="I70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J70" s="3">
         <v>3800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3700</v>
       </c>
       <c r="K70" s="3">
         <v>3700</v>
       </c>
       <c r="L70" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M70" s="3">
         <v>3600</v>
-      </c>
-      <c r="M70" s="3">
-        <v>3500</v>
       </c>
       <c r="N70" s="3">
         <v>3500</v>
       </c>
       <c r="O70" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P70" s="3">
         <v>3400</v>
-      </c>
-      <c r="P70" s="3">
-        <v>3300</v>
       </c>
       <c r="Q70" s="3">
         <v>3300</v>
       </c>
       <c r="R70" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="S70" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
-        <v>-300</v>
-      </c>
       <c r="K76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-300</v>
-      </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
       <c r="L81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
-        <v>-300</v>
-      </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,34 +4756,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -4578,25 +4795,28 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4811,25 +5041,28 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,17 +5304,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5079,11 +5325,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5112,10 +5358,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,34 +5416,37 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
@@ -5203,21 +5455,24 @@
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,23 +774,23 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -797,13 +804,19 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,13 +972,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -969,31 +996,37 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1081,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,13 +1241,13 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1212,7 +1265,7 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1221,22 +1274,28 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1334,32 +1401,32 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,13 +1575,13 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1511,60 +1596,66 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1572,8 +1663,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,19 +1746,25 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
@@ -1670,7 +1773,7 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
@@ -1679,57 +1782,63 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -1738,31 +1847,37 @@
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1932,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1855,15 +1976,15 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>500</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2006,32 +2145,32 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2041,31 +2180,37 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -2074,31 +2219,37 @@
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,31 +2304,37 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -2186,92 +2343,104 @@
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,76 +2485,84 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
@@ -2403,36 +2582,42 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2447,28 +2632,28 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,16 +2729,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2594,64 +2791,76 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2704,15 +2913,21 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2742,10 +2957,10 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -2762,16 +2977,22 @@
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="E49" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="F49" s="3">
         <v>4000</v>
@@ -2816,10 +3037,16 @@
         <v>4000</v>
       </c>
       <c r="T49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4200</v>
       </c>
       <c r="G54" s="3">
         <v>4200</v>
       </c>
       <c r="H54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J54" s="3">
         <v>4400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,29 +3412,29 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3190,30 +3451,36 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -3227,11 +3494,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3308,40 +3581,46 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -3358,31 +3637,37 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3422,19 +3707,25 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
@@ -3464,10 +3755,10 @@
         <v>1000</v>
       </c>
       <c r="P62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="R62" s="3">
         <v>1500</v>
@@ -3475,11 +3766,17 @@
       <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,25 +3955,31 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="E66" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="H66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
@@ -3688,22 +4003,28 @@
         <v>1000</v>
       </c>
       <c r="P66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R66" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1700</v>
       </c>
       <c r="S66" s="3">
         <v>1500</v>
       </c>
       <c r="T66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,64 +4165,76 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F70" s="3">
         <v>4700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>4700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>4600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>4500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>4400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>4400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>3600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>3500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>3300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>3300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>3200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-11500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-10900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,92 +4661,104 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -4378,31 +4767,37 @@
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4818,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,25 +5186,31 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -4786,37 +5219,43 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5028,8 +5487,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5044,25 +5503,31 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,35 +5792,41 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5361,10 +5852,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>300</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>300</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>-200</v>
-      </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,20 +784,20 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -810,13 +814,16 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,16 +986,16 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1002,10 +1016,10 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1014,19 +1028,22 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,20 +1104,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,25 +1258,26 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1271,31 +1298,34 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,16 +1333,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1321,43 +1351,46 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,11 +1423,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1407,29 +1441,29 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,25 +1488,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
@@ -1478,7 +1515,7 @@
         <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
@@ -1487,25 +1524,28 @@
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,25 +1606,28 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
@@ -1602,34 +1645,37 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1660,14 +1706,14 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,31 +1801,34 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -1788,34 +1840,37 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>500</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,11 +2203,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2151,29 +2221,29 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,23 +2573,24 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2511,61 +2598,64 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
@@ -2588,39 +2678,42 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <v>200</v>
       </c>
       <c r="Q42" s="3">
+        <v>200</v>
+      </c>
+      <c r="R42" s="3">
         <v>300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2638,25 +2731,25 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,19 +2831,22 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2797,22 +2896,25 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2821,46 +2923,49 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1200</v>
       </c>
       <c r="R46" s="3">
         <v>1200</v>
       </c>
       <c r="S46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,10 +3024,13 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2963,7 +3071,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -2983,19 +3091,22 @@
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4000</v>
       </c>
       <c r="G49" s="3">
         <v>4000</v>
@@ -3043,10 +3154,13 @@
         <v>4000</v>
       </c>
       <c r="V49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,22 +3416,25 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4200</v>
       </c>
       <c r="H54" s="3">
         <v>4200</v>
@@ -3317,46 +3443,49 @@
         <v>4200</v>
       </c>
       <c r="J54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>5400</v>
       </c>
       <c r="R54" s="3">
         <v>5400</v>
       </c>
       <c r="S54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T54" s="3">
         <v>5600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,13 +3533,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3418,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3433,11 +3564,11 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3457,16 +3588,19 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3476,14 +3610,14 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -3500,8 +3634,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3587,31 +3724,34 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -3619,11 +3759,11 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -3643,16 +3783,19 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,17 +3803,17 @@
         <v>2300</v>
       </c>
       <c r="E61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F61" s="3">
         <v>2200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3713,22 +3856,25 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
@@ -3761,7 +3907,7 @@
         <v>1000</v>
       </c>
       <c r="R62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="S62" s="3">
         <v>1500</v>
@@ -3772,11 +3918,14 @@
       <c r="U62" s="3">
         <v>1500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,28 +4116,31 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
@@ -4009,22 +4167,25 @@
         <v>1000</v>
       </c>
       <c r="R66" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="S66" s="3">
         <v>1500</v>
       </c>
       <c r="T66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4180,61 +4348,64 @@
         <v>4900</v>
       </c>
       <c r="E70" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F70" s="3">
         <v>4800</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4700</v>
       </c>
       <c r="G70" s="3">
         <v>4700</v>
       </c>
       <c r="H70" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I70" s="3">
         <v>4600</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>4500</v>
-      </c>
-      <c r="J70" s="3">
-        <v>4400</v>
       </c>
       <c r="K70" s="3">
         <v>4400</v>
       </c>
       <c r="L70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M70" s="3">
         <v>3800</v>
-      </c>
-      <c r="M70" s="3">
-        <v>3700</v>
       </c>
       <c r="N70" s="3">
         <v>3700</v>
       </c>
       <c r="O70" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P70" s="3">
         <v>3600</v>
-      </c>
-      <c r="P70" s="3">
-        <v>3500</v>
       </c>
       <c r="Q70" s="3">
         <v>3500</v>
       </c>
       <c r="R70" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S70" s="3">
         <v>3400</v>
-      </c>
-      <c r="S70" s="3">
-        <v>3300</v>
       </c>
       <c r="T70" s="3">
         <v>3300</v>
       </c>
       <c r="U70" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="V70" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,7 +5031,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,43 +5406,46 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
@@ -5237,25 +5454,28 @@
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-300</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
       </c>
       <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,11 +5703,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5487,11 +5717,11 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5509,25 +5739,28 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,26 +6041,29 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5825,11 +6071,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5858,10 +6104,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5934,31 +6186,31 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
@@ -5967,21 +6219,24 @@
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,20 +791,20 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -817,13 +821,16 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,28 +990,29 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1019,10 +1033,10 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1031,19 +1045,22 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,23 +1124,26 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,28 +1285,29 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1301,31 +1328,34 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,19 +1363,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1354,43 +1384,46 @@
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,11 +1460,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1444,29 +1478,29 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,25 +1528,25 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
@@ -1518,7 +1555,7 @@
         <v>-200</v>
       </c>
       <c r="O21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
@@ -1527,25 +1564,28 @@
         <v>-300</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,28 +1649,31 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1648,34 +1691,37 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1709,14 +1755,14 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,34 +1853,37 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
@@ -1843,99 +1895,105 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
       </c>
       <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>500</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,11 +2276,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2224,29 +2294,29 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
       </c>
       <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
       </c>
       <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,26 +2660,27 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2601,46 +2688,49 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,15 +2740,15 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
@@ -2681,31 +2771,34 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <v>200</v>
       </c>
       <c r="R42" s="3">
+        <v>200</v>
+      </c>
+      <c r="S42" s="3">
         <v>300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2715,8 +2808,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2734,25 +2827,25 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2899,25 +2998,28 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2926,46 +3028,49 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1200</v>
       </c>
       <c r="S46" s="3">
         <v>1200</v>
       </c>
       <c r="T46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3027,10 +3132,13 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3074,7 +3182,7 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -3094,22 +3202,25 @@
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4000</v>
       </c>
       <c r="H49" s="3">
         <v>4000</v>
@@ -3157,10 +3268,13 @@
         <v>4000</v>
       </c>
       <c r="W49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,25 +3542,28 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4200</v>
       </c>
       <c r="I54" s="3">
         <v>4200</v>
@@ -3446,46 +3572,49 @@
         <v>4200</v>
       </c>
       <c r="K54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L54" s="3">
         <v>4400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>5400</v>
       </c>
       <c r="S54" s="3">
         <v>5400</v>
       </c>
       <c r="T54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U54" s="3">
         <v>5600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,17 +3664,18 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -3552,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3567,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3591,16 +3722,19 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3613,14 +3747,14 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -3637,8 +3771,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3727,34 +3864,37 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
@@ -3762,11 +3902,11 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -3786,37 +3926,40 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="E61" s="3">
         <v>2300</v>
       </c>
       <c r="F61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G61" s="3">
         <v>2200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3870,14 +4016,14 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>1000</v>
@@ -3910,7 +4056,7 @@
         <v>1000</v>
       </c>
       <c r="S62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T62" s="3">
         <v>1500</v>
@@ -3921,11 +4067,14 @@
       <c r="V62" s="3">
         <v>1500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,31 +4274,34 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
       </c>
       <c r="K66" s="3">
         <v>1000</v>
@@ -4170,22 +4328,25 @@
         <v>1000</v>
       </c>
       <c r="S66" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T66" s="3">
         <v>1500</v>
       </c>
       <c r="U66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,73 +4504,79 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E70" s="3">
         <v>4900</v>
       </c>
       <c r="F70" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G70" s="3">
         <v>4800</v>
-      </c>
-      <c r="G70" s="3">
-        <v>4700</v>
       </c>
       <c r="H70" s="3">
         <v>4700</v>
       </c>
       <c r="I70" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J70" s="3">
         <v>4600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4500</v>
-      </c>
-      <c r="K70" s="3">
-        <v>4400</v>
       </c>
       <c r="L70" s="3">
         <v>4400</v>
       </c>
       <c r="M70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N70" s="3">
         <v>3800</v>
-      </c>
-      <c r="N70" s="3">
-        <v>3700</v>
       </c>
       <c r="O70" s="3">
         <v>3700</v>
       </c>
       <c r="P70" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q70" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>3500</v>
       </c>
       <c r="R70" s="3">
         <v>3500</v>
       </c>
       <c r="S70" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T70" s="3">
         <v>3400</v>
-      </c>
-      <c r="T70" s="3">
-        <v>3300</v>
       </c>
       <c r="U70" s="3">
         <v>3300</v>
       </c>
       <c r="V70" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="W70" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
       </c>
       <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,7 +5233,7 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,46 +5623,49 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
@@ -5457,25 +5674,28 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-300</v>
       </c>
       <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5706,11 +5936,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5720,11 +5950,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5742,25 +5972,28 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,29 +6287,32 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6074,11 +6320,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6107,10 +6353,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,13 +6423,16 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -6189,31 +6441,31 @@
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
@@ -6222,21 +6474,24 @@
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,20 +797,20 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -824,13 +827,16 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,31 +1003,32 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1036,10 +1049,10 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1048,19 +1061,22 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,26 +1143,29 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1159,8 +1178,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,31 +1311,32 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1331,31 +1357,34 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,22 +1392,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1387,43 +1416,46 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1463,11 +1496,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1481,29 +1514,29 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,31 +1561,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
@@ -1558,7 +1594,7 @@
         <v>-200</v>
       </c>
       <c r="P21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
@@ -1567,25 +1603,28 @@
         <v>-300</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-300</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,31 +1691,34 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1694,34 +1736,37 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1758,14 +1803,14 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,37 +1904,40 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -1898,102 +1949,108 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-600</v>
       </c>
       <c r="F27" s="3">
         <v>-600</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2152,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -2110,12 +2170,12 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
         <v>500</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2279,11 +2348,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2297,29 +2366,29 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-600</v>
       </c>
       <c r="F33" s="3">
         <v>-600</v>
       </c>
       <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-600</v>
       </c>
       <c r="F35" s="3">
         <v>-600</v>
       </c>
       <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,29 +2746,30 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2691,46 +2777,49 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2743,15 +2832,15 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
@@ -2774,42 +2863,45 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
         <v>200</v>
       </c>
       <c r="S42" s="3">
+        <v>200</v>
+      </c>
+      <c r="T42" s="3">
         <v>300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2830,25 +2922,25 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2945,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3001,28 +3099,31 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3031,46 +3132,49 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1200</v>
       </c>
       <c r="T46" s="3">
         <v>1200</v>
       </c>
       <c r="U46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3135,10 +3239,13 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3185,7 +3292,7 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3205,25 +3312,28 @@
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4000</v>
       </c>
       <c r="I49" s="3">
         <v>4000</v>
@@ -3271,10 +3381,13 @@
         <v>4000</v>
       </c>
       <c r="X49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,28 +3667,31 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4200</v>
       </c>
       <c r="J54" s="3">
         <v>4200</v>
@@ -3575,46 +3700,49 @@
         <v>4200</v>
       </c>
       <c r="L54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M54" s="3">
         <v>4400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>5400</v>
       </c>
       <c r="T54" s="3">
         <v>5400</v>
       </c>
       <c r="U54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V54" s="3">
         <v>5600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,11 +3804,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -3686,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3701,11 +3831,11 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3725,16 +3855,19 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3750,14 +3883,14 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3774,8 +3907,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3867,10 +4003,13 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,26 +4017,26 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -3905,11 +4044,11 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -3929,16 +4068,19 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
       <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,23 +4088,23 @@
         <v>3700</v>
       </c>
       <c r="E61" s="3">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="F61" s="3">
         <v>2300</v>
       </c>
       <c r="G61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4019,14 +4164,14 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
@@ -4059,7 +4204,7 @@
         <v>1000</v>
       </c>
       <c r="T62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="U62" s="3">
         <v>1500</v>
@@ -4070,11 +4215,14 @@
       <c r="W62" s="3">
         <v>1500</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,25 +4443,25 @@
         <v>3800</v>
       </c>
       <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
@@ -4331,22 +4488,25 @@
         <v>1000</v>
       </c>
       <c r="T66" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="U66" s="3">
         <v>1500</v>
       </c>
       <c r="V66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,76 +4671,82 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E70" s="3">
         <v>5000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>4900</v>
       </c>
       <c r="F70" s="3">
         <v>4900</v>
       </c>
       <c r="G70" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H70" s="3">
         <v>4800</v>
-      </c>
-      <c r="H70" s="3">
-        <v>4700</v>
       </c>
       <c r="I70" s="3">
         <v>4700</v>
       </c>
       <c r="J70" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K70" s="3">
         <v>4600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4500</v>
-      </c>
-      <c r="L70" s="3">
-        <v>4400</v>
       </c>
       <c r="M70" s="3">
         <v>4400</v>
       </c>
       <c r="N70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O70" s="3">
         <v>3800</v>
-      </c>
-      <c r="O70" s="3">
-        <v>3700</v>
       </c>
       <c r="P70" s="3">
         <v>3700</v>
       </c>
       <c r="Q70" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R70" s="3">
         <v>3600</v>
-      </c>
-      <c r="R70" s="3">
-        <v>3500</v>
       </c>
       <c r="S70" s="3">
         <v>3500</v>
       </c>
       <c r="T70" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U70" s="3">
         <v>3400</v>
-      </c>
-      <c r="U70" s="3">
-        <v>3300</v>
       </c>
       <c r="V70" s="3">
         <v>3300</v>
       </c>
       <c r="W70" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="X70" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-600</v>
       </c>
       <c r="F81" s="3">
         <v>-600</v>
       </c>
       <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5236,7 +5434,7 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,49 +5839,52 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -5677,25 +5893,28 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-300</v>
       </c>
       <c r="W89" s="3">
         <v>-300</v>
       </c>
       <c r="X89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5939,11 +6168,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5953,11 +6182,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5975,25 +6204,28 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,32 +6532,35 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6323,11 +6568,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -6356,10 +6601,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,16 +6674,19 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
@@ -6444,31 +6695,31 @@
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
@@ -6477,21 +6728,24 @@
         <v>-200</v>
       </c>
       <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -800,23 +808,23 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -830,13 +838,19 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,37 +1030,39 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1400</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1052,31 +1080,37 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
       <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,32 +1180,38 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1181,11 +1221,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,37 +1364,39 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1800</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1360,7 +1414,7 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1369,22 +1423,28 @@
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1800</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1499,14 +1567,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1517,32 +1585,32 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1552,8 +1620,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,37 +1774,43 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1700</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1739,34 +1825,40 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1786,28 +1878,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1815,8 +1907,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,34 +2005,40 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -1943,7 +2047,7 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
@@ -1952,72 +2056,78 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
@@ -2026,31 +2136,37 @@
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,11 +2277,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -2173,15 +2295,15 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
         <v>500</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2351,14 +2491,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2369,32 +2509,32 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2404,46 +2544,52 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
@@ -2452,31 +2598,37 @@
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,46 +2698,52 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
@@ -2594,107 +2752,119 @@
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2835,18 +3015,18 @@
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -2866,31 +3046,37 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2925,28 +3111,28 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3046,17 +3244,17 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3102,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3242,10 +3452,16 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3295,10 +3511,10 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -3315,31 +3531,37 @@
       <c r="Y48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F49" s="3">
         <v>2700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4000</v>
       </c>
       <c r="K49" s="3">
         <v>4000</v>
@@ -3384,10 +3606,16 @@
         <v>4000</v>
       </c>
       <c r="Y49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3200</v>
       </c>
       <c r="G54" s="3">
         <v>3600</v>
       </c>
       <c r="H54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>4200</v>
       </c>
       <c r="L54" s="3">
         <v>4200</v>
       </c>
       <c r="M54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O54" s="3">
         <v>4400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,53 +4055,55 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -3858,16 +4120,22 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3886,17 +4154,17 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3910,11 +4178,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3937,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4006,55 +4280,61 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
@@ -4071,16 +4351,22 @@
         <v>0</v>
       </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,26 +4377,26 @@
         <v>3700</v>
       </c>
       <c r="F61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H61" s="3">
         <v>2300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4167,17 +4459,17 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>1000</v>
@@ -4207,10 +4499,10 @@
         <v>1000</v>
       </c>
       <c r="U62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="V62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="W62" s="3">
         <v>1500</v>
@@ -4218,11 +4510,17 @@
       <c r="X62" s="3">
         <v>1500</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4446,28 +4762,28 @@
         <v>3800</v>
       </c>
       <c r="F66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1400</v>
       </c>
       <c r="K66" s="3">
         <v>1100</v>
       </c>
       <c r="L66" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N66" s="3">
         <v>1000</v>
@@ -4491,22 +4807,28 @@
         <v>1000</v>
       </c>
       <c r="U66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W66" s="3">
         <v>1500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1700</v>
       </c>
       <c r="X66" s="3">
         <v>1500</v>
       </c>
       <c r="Y66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,79 +5004,91 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F70" s="3">
         <v>5100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>5000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>4900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>4900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>4800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>4700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>4700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>4600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>4500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>4400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>4400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>3800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>3700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>3600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>3500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>3500</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>3400</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>3300</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>3300</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>3200</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-12000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-11700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-11500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,122 +5620,134 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
@@ -5366,31 +5756,37 @@
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5437,10 +5835,10 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,40 +6270,46 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -5884,37 +6318,43 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,16 +6607,22 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6171,28 +6631,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6207,25 +6667,31 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,41 +7036,41 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6604,10 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>300</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
-      </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
       </c>
       <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -814,20 +818,20 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -844,13 +848,16 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,28 +1058,28 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1086,10 +1100,10 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>200</v>
-      </c>
-      <c r="U12" s="3">
-        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1098,19 +1112,22 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,35 +1203,38 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,28 +1405,28 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1420,31 +1447,34 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,28 +1485,28 @@
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1485,43 +1515,46 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-300</v>
       </c>
       <c r="AA18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1573,11 +1607,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1591,29 +1625,29 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1638,37 +1675,37 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
@@ -1677,7 +1714,7 @@
         <v>-200</v>
       </c>
       <c r="S21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
@@ -1686,25 +1723,28 @@
         <v>-300</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-300</v>
       </c>
       <c r="AA21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,28 +1835,28 @@
         <v>-500</v>
       </c>
       <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
@@ -1831,34 +1874,37 @@
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-300</v>
       </c>
       <c r="AA23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1884,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1904,14 +1950,14 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,34 +2075,34 @@
         <v>-500</v>
       </c>
       <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
@@ -2062,34 +2114,37 @@
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-300</v>
       </c>
       <c r="AA26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,73 +2155,76 @@
         <v>-600</v>
       </c>
       <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
       </c>
       <c r="I27" s="3">
         <v>-600</v>
       </c>
       <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>-400</v>
       </c>
       <c r="V27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-300</v>
       </c>
       <c r="AA27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -2301,12 +2362,12 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
         <v>500</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2497,11 +2567,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2515,29 +2585,29 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2562,73 +2635,76 @@
         <v>-600</v>
       </c>
       <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
       </c>
       <c r="I33" s="3">
         <v>-600</v>
       </c>
       <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>-400</v>
       </c>
       <c r="V33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-300</v>
       </c>
       <c r="AA33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,155 +2795,161 @@
         <v>-600</v>
       </c>
       <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
       </c>
       <c r="I35" s="3">
         <v>-600</v>
       </c>
       <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>-400</v>
       </c>
       <c r="V35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-300</v>
       </c>
       <c r="AA35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,38 +3007,39 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2960,76 +3047,79 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -3052,31 +3142,34 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U42" s="3">
         <v>200</v>
       </c>
       <c r="V42" s="3">
+        <v>200</v>
+      </c>
+      <c r="W42" s="3">
         <v>300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3117,25 +3210,25 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3250,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3306,37 +3405,40 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -3345,46 +3447,49 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
-      </c>
-      <c r="V46" s="3">
-        <v>1200</v>
       </c>
       <c r="W46" s="3">
         <v>1200</v>
       </c>
       <c r="X46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3458,10 +3563,13 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3484,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3517,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
@@ -3537,34 +3645,37 @@
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4000</v>
       </c>
       <c r="L49" s="3">
         <v>4000</v>
@@ -3612,10 +3723,13 @@
         <v>4000</v>
       </c>
       <c r="AA49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,37 +4045,40 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4200</v>
       </c>
       <c r="M54" s="3">
         <v>4200</v>
@@ -3961,46 +4087,49 @@
         <v>4200</v>
       </c>
       <c r="O54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P54" s="3">
         <v>4400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5100</v>
-      </c>
-      <c r="V54" s="3">
-        <v>5400</v>
       </c>
       <c r="W54" s="3">
         <v>5400</v>
       </c>
       <c r="X54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>5600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,29 +4187,30 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -4087,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4102,11 +4233,11 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -4126,48 +4257,51 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -4184,8 +4318,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4286,46 +4423,49 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -4333,11 +4473,11 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
@@ -4357,16 +4497,19 @@
         <v>0</v>
       </c>
       <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3">
-        <v>0</v>
-      </c>
       <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4383,23 +4526,23 @@
         <v>3700</v>
       </c>
       <c r="H61" s="3">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="I61" s="3">
         <v>2300</v>
       </c>
       <c r="J61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4465,14 +4611,14 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>1000</v>
@@ -4505,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="W62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X62" s="3">
         <v>1500</v>
@@ -4516,11 +4662,14 @@
       <c r="Z62" s="3">
         <v>1500</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,13 +4905,16 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E66" s="3">
         <v>3800</v>
@@ -4768,25 +4926,25 @@
         <v>3800</v>
       </c>
       <c r="H66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
@@ -4813,22 +4971,25 @@
         <v>1000</v>
       </c>
       <c r="W66" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X66" s="3">
         <v>1500</v>
       </c>
       <c r="Y66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,85 +5175,91 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E70" s="3">
         <v>5700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>5000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>4900</v>
       </c>
       <c r="I70" s="3">
         <v>4900</v>
       </c>
       <c r="J70" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K70" s="3">
         <v>4800</v>
-      </c>
-      <c r="K70" s="3">
-        <v>4700</v>
       </c>
       <c r="L70" s="3">
         <v>4700</v>
       </c>
       <c r="M70" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N70" s="3">
         <v>4600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>4500</v>
-      </c>
-      <c r="O70" s="3">
-        <v>4400</v>
       </c>
       <c r="P70" s="3">
         <v>4400</v>
       </c>
       <c r="Q70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R70" s="3">
         <v>3800</v>
-      </c>
-      <c r="R70" s="3">
-        <v>3700</v>
       </c>
       <c r="S70" s="3">
         <v>3700</v>
       </c>
       <c r="T70" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U70" s="3">
         <v>3600</v>
-      </c>
-      <c r="U70" s="3">
-        <v>3500</v>
       </c>
       <c r="V70" s="3">
         <v>3500</v>
       </c>
       <c r="W70" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X70" s="3">
         <v>3400</v>
-      </c>
-      <c r="X70" s="3">
-        <v>3300</v>
       </c>
       <c r="Y70" s="3">
         <v>3300</v>
       </c>
       <c r="Z70" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="AA70" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-5900</v>
       </c>
       <c r="F76" s="3">
         <v>-5900</v>
       </c>
       <c r="G76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H76" s="3">
         <v>-5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5720,73 +5915,76 @@
         <v>-600</v>
       </c>
       <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
       </c>
       <c r="I81" s="3">
         <v>-600</v>
       </c>
       <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>-400</v>
       </c>
       <c r="V81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-300</v>
       </c>
       <c r="AA81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5841,7 +6040,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,49 +6502,49 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
@@ -6336,25 +6553,28 @@
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-300</v>
       </c>
       <c r="Z89" s="3">
         <v>-300</v>
       </c>
       <c r="AA89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6624,8 +6854,8 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -6637,11 +6867,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6651,11 +6881,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6673,25 +6903,28 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,32 +7282,32 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7069,11 +7315,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7102,10 +7348,13 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,16 +7442,16 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
@@ -7208,31 +7460,31 @@
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
@@ -7241,21 +7493,24 @@
         <v>-200</v>
       </c>
       <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,20 +824,20 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -851,13 +854,16 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,28 +1074,28 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1103,10 +1116,10 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
-      </c>
-      <c r="V12" s="3">
-        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
@@ -1115,19 +1128,22 @@
         <v>100</v>
       </c>
       <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,38 +1222,41 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1250,8 +1269,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,13 +1418,14 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1408,28 +1434,28 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1450,31 +1476,34 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1488,28 +1517,28 @@
         <v>-500</v>
       </c>
       <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1518,43 +1547,46 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-300</v>
       </c>
       <c r="AB18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1610,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1628,29 +1661,29 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1696,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1678,37 +1714,37 @@
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
@@ -1717,7 +1753,7 @@
         <v>-200</v>
       </c>
       <c r="T21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
@@ -1726,25 +1762,28 @@
         <v>-300</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-300</v>
       </c>
       <c r="AB21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,13 +1862,16 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
@@ -1838,28 +1880,28 @@
         <v>-500</v>
       </c>
       <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
@@ -1877,34 +1919,37 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-300</v>
       </c>
       <c r="AB23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1933,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1953,14 +1998,14 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,13 +2111,16 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-500</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -2078,34 +2129,34 @@
         <v>-500</v>
       </c>
       <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
@@ -2117,39 +2168,42 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-300</v>
       </c>
       <c r="AB26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-600</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
@@ -2158,73 +2212,76 @@
         <v>-600</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
       </c>
       <c r="W27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-300</v>
       </c>
       <c r="AB27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,8 +2407,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
@@ -2365,12 +2425,12 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3">
         <v>500</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2570,11 +2639,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2588,29 +2657,29 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2623,13 +2692,16 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-600</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
@@ -2638,73 +2710,76 @@
         <v>-600</v>
       </c>
       <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-600</v>
       </c>
       <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
       </c>
       <c r="V33" s="3">
         <v>-400</v>
       </c>
       <c r="W33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-300</v>
       </c>
       <c r="AB33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,13 +2858,16 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-600</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
@@ -2798,158 +2876,164 @@
         <v>-600</v>
       </c>
       <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-600</v>
       </c>
       <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
       </c>
       <c r="V35" s="3">
         <v>-400</v>
       </c>
       <c r="W35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-300</v>
       </c>
       <c r="AB35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,41 +3093,42 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -3050,46 +3136,49 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3118,11 +3207,11 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -3145,31 +3234,34 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
         <v>200</v>
       </c>
       <c r="W42" s="3">
+        <v>200</v>
+      </c>
+      <c r="X42" s="3">
         <v>300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3213,25 +3305,25 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3352,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3408,40 +3506,43 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -3450,46 +3551,49 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
-      </c>
-      <c r="W46" s="3">
-        <v>1200</v>
       </c>
       <c r="X46" s="3">
         <v>1200</v>
       </c>
       <c r="Y46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3566,10 +3670,13 @@
         <v>0</v>
       </c>
       <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3595,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3628,7 +3735,7 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
@@ -3648,37 +3755,40 @@
       <c r="AB48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4000</v>
       </c>
       <c r="M49" s="3">
         <v>4000</v>
@@ -3726,10 +3836,13 @@
         <v>4000</v>
       </c>
       <c r="AB49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AC49" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,40 +4170,43 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4200</v>
       </c>
       <c r="N54" s="3">
         <v>4200</v>
@@ -4090,46 +4215,49 @@
         <v>4200</v>
       </c>
       <c r="P54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>5400</v>
       </c>
       <c r="X54" s="3">
         <v>5400</v>
       </c>
       <c r="Y54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>5600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,32 +4317,33 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -4221,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4236,11 +4366,11 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
@@ -4260,16 +4390,19 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4294,17 +4427,17 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -4321,8 +4454,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4348,8 +4481,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4426,10 +4562,13 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,38 +4576,38 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -4476,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
@@ -4500,16 +4639,19 @@
         <v>0</v>
       </c>
       <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="AA60" s="3">
-        <v>0</v>
-      </c>
       <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4529,23 +4671,23 @@
         <v>3700</v>
       </c>
       <c r="I61" s="3">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="J61" s="3">
         <v>2300</v>
       </c>
       <c r="K61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4614,14 +4759,14 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>1000</v>
@@ -4654,7 +4799,7 @@
         <v>1000</v>
       </c>
       <c r="X62" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Y62" s="3">
         <v>1500</v>
@@ -4665,11 +4810,14 @@
       <c r="AA62" s="3">
         <v>1500</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5062,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,7 +5074,7 @@
         <v>3900</v>
       </c>
       <c r="E66" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F66" s="3">
         <v>3800</v>
@@ -4929,25 +5086,25 @@
         <v>3800</v>
       </c>
       <c r="I66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1000</v>
       </c>
       <c r="P66" s="3">
         <v>1000</v>
@@ -4974,22 +5131,25 @@
         <v>1000</v>
       </c>
       <c r="X66" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Y66" s="3">
         <v>1500</v>
       </c>
       <c r="Z66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,88 +5342,94 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E70" s="3">
         <v>5800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>5100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>5000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>4900</v>
       </c>
       <c r="J70" s="3">
         <v>4900</v>
       </c>
       <c r="K70" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L70" s="3">
         <v>4800</v>
-      </c>
-      <c r="L70" s="3">
-        <v>4700</v>
       </c>
       <c r="M70" s="3">
         <v>4700</v>
       </c>
       <c r="N70" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O70" s="3">
         <v>4600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>4500</v>
-      </c>
-      <c r="P70" s="3">
-        <v>4400</v>
       </c>
       <c r="Q70" s="3">
         <v>4400</v>
       </c>
       <c r="R70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S70" s="3">
         <v>3800</v>
-      </c>
-      <c r="S70" s="3">
-        <v>3700</v>
       </c>
       <c r="T70" s="3">
         <v>3700</v>
       </c>
       <c r="U70" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V70" s="3">
         <v>3600</v>
-      </c>
-      <c r="V70" s="3">
-        <v>3500</v>
       </c>
       <c r="W70" s="3">
         <v>3500</v>
       </c>
       <c r="X70" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y70" s="3">
         <v>3400</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>3300</v>
       </c>
       <c r="Z70" s="3">
         <v>3300</v>
       </c>
       <c r="AA70" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="AB70" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-5900</v>
       </c>
       <c r="G76" s="3">
         <v>-5900</v>
       </c>
       <c r="H76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I76" s="3">
         <v>-5200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,98 +6006,104 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-600</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
@@ -5918,73 +6112,76 @@
         <v>-600</v>
       </c>
       <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-600</v>
       </c>
       <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
       </c>
       <c r="V81" s="3">
         <v>-400</v>
       </c>
       <c r="W81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-300</v>
       </c>
       <c r="AB81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6043,7 +6241,7 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,61 +6706,64 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
@@ -6556,25 +6772,28 @@
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-300</v>
       </c>
       <c r="AA89" s="3">
         <v>-300</v>
       </c>
       <c r="AB89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,19 +7069,22 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -6870,11 +7099,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6884,11 +7113,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6906,25 +7135,28 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,32 +7530,32 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7318,11 +7563,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -7351,10 +7596,13 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,28 +7681,31 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
@@ -7463,31 +7714,31 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>-200</v>
@@ -7496,21 +7747,24 @@
         <v>-200</v>
       </c>
       <c r="W102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FNAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>FNAM</t>
   </si>
@@ -2119,8 +2119,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -2202,8 +2202,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
@@ -2700,8 +2700,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
@@ -2866,8 +2866,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
@@ -3432,7 +3432,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -4323,8 +4323,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -5351,7 +5351,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>9900</v>
+        <v>5900</v>
       </c>
       <c r="E70" s="3">
         <v>5800</v>
@@ -5848,8 +5848,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>-7400</v>
       </c>
       <c r="E76" s="3">
         <v>-7000</v>
@@ -6102,8 +6102,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
